--- a/tmp/CLICHÉS/CLICHÉS-recap-detailed.xlsx
+++ b/tmp/CLICHÉS/CLICHÉS-recap-detailed.xlsx
@@ -512,10 +512,10 @@
         <v>68</v>
       </c>
       <c r="C4" t="n">
-        <v>4764</v>
+        <v>4511</v>
       </c>
       <c r="D4" t="n">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
